--- a/Testing/CPS/CPS_CAS 616-47-7.xlsx
+++ b/Testing/CPS/CPS_CAS 616-47-7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sara.lentink/Arche Dropbox/C2C/08_Chemical Profiling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arche/Documents/Python/C2Cautomatisation/Testing/CPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85911A9F-F336-D64B-81FF-EDB4DCC3CE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D09DF03-64D4-2746-92F8-6E296E33B32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6380" yWindow="3300" windowWidth="26840" windowHeight="15940" xr2:uid="{0728D5DD-C02B-8C46-A6BD-1033A624F26C}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="134">
   <si>
     <t>Arche</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>IARC 1</t>
   </si>
 </sst>
 </file>
@@ -1071,6 +1074,87 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1101,89 +1185,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="fill" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3921,8 +3924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C89276-FF55-1F41-AEA8-3E6BBFC8D8FD}">
   <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4003,11 +4006,11 @@
       <c r="A6" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
       <c r="F6" s="7" t="s">
         <v>116</v>
       </c>
@@ -4025,9 +4028,9 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
       <c r="F7" s="7"/>
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
@@ -4091,18 +4094,18 @@
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="109" t="s">
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="110"/>
+      <c r="I16" s="96"/>
       <c r="J16" s="20" t="s">
         <v>17</v>
       </c>
@@ -4137,24 +4140,24 @@
         <v>22</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="98"/>
+        <v>133</v>
+      </c>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
       <c r="H18" s="28"/>
       <c r="I18" s="29"/>
       <c r="J18" s="27"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="90"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="30"/>
       <c r="H19" s="31"/>
       <c r="I19" s="32"/>
       <c r="J19" s="30"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="100"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="90"/>
     </row>
     <row r="20" spans="1:12" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
@@ -4177,16 +4180,16 @@
       <c r="H21" s="31"/>
       <c r="I21" s="32"/>
       <c r="J21" s="30"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="100"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="90"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="30"/>
       <c r="H22" s="31"/>
       <c r="I22" s="32"/>
       <c r="J22" s="30"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="100"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="90"/>
     </row>
     <row r="23" spans="1:12" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="38"/>
@@ -4212,14 +4215,14 @@
       <c r="C24" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
       <c r="H24" s="31"/>
       <c r="I24" s="32"/>
       <c r="J24" s="30"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="100"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="90"/>
     </row>
     <row r="25" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
@@ -4231,8 +4234,8 @@
       <c r="C25" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="112"/>
-      <c r="E25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="99"/>
       <c r="F25" s="43" t="s">
         <v>120</v>
       </c>
@@ -4241,8 +4244,8 @@
       </c>
       <c r="I25" s="32"/>
       <c r="J25" s="30"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="100"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="90"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="30"/>
@@ -4252,24 +4255,24 @@
       <c r="C26" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="112"/>
-      <c r="E26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="99"/>
       <c r="F26" s="43" t="s">
         <v>120</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="32"/>
       <c r="J26" s="30"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="100"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="90"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="32"/>
       <c r="H27" s="31"/>
       <c r="I27" s="32"/>
       <c r="J27" s="30"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="100"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="90"/>
     </row>
     <row r="28" spans="1:12" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
@@ -4293,14 +4296,14 @@
         <v>22</v>
       </c>
       <c r="C29" s="97"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="99"/>
       <c r="H29" s="31"/>
       <c r="I29" s="32"/>
       <c r="J29" s="30"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="100"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="90"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="30"/>
@@ -4319,16 +4322,16 @@
       </c>
       <c r="I30" s="32"/>
       <c r="J30" s="30"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="100"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="90"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="30"/>
       <c r="H31" s="31"/>
       <c r="I31" s="32"/>
       <c r="J31" s="30"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="100"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="90"/>
     </row>
     <row r="32" spans="1:12" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38"/>
@@ -4352,14 +4355,14 @@
         <v>22</v>
       </c>
       <c r="C33" s="97"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="99"/>
       <c r="H33" s="31"/>
       <c r="I33" s="32"/>
       <c r="J33" s="30"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="100"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="90"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="32"/>
@@ -4378,16 +4381,16 @@
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="30"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="100"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="90"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="32"/>
       <c r="H35" s="31"/>
       <c r="I35" s="32"/>
       <c r="J35" s="30"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="100"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="90"/>
     </row>
     <row r="36" spans="1:12" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="38"/>
@@ -4410,8 +4413,8 @@
       <c r="G37" s="32"/>
       <c r="I37" s="32"/>
       <c r="J37" s="30"/>
-      <c r="K37" s="114"/>
-      <c r="L37" s="100"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="90"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="32"/>
@@ -4419,8 +4422,8 @@
       <c r="G38" s="32"/>
       <c r="I38" s="32"/>
       <c r="J38" s="30"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="100"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="90"/>
     </row>
     <row r="39" spans="1:12" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
@@ -4444,14 +4447,14 @@
         <v>34</v>
       </c>
       <c r="C40" s="97"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="99"/>
       <c r="G40" s="32"/>
       <c r="I40" s="32"/>
       <c r="J40" s="30"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="100"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="90"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="32"/>
@@ -4459,14 +4462,14 @@
         <v>35</v>
       </c>
       <c r="C41" s="97"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="99"/>
       <c r="G41" s="32"/>
       <c r="I41" s="32"/>
       <c r="J41" s="30"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="100"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="90"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B42" s="49" t="s">
@@ -4485,8 +4488,8 @@
       </c>
       <c r="I42" s="32"/>
       <c r="J42" s="30"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="100"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="90"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B43" s="49" t="s">
@@ -4502,16 +4505,16 @@
       <c r="H43" s="31"/>
       <c r="I43" s="32"/>
       <c r="J43" s="30"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="100"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="90"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="32"/>
       <c r="G44" s="32"/>
       <c r="I44" s="32"/>
       <c r="J44" s="30"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="100"/>
+      <c r="K44" s="104"/>
+      <c r="L44" s="90"/>
     </row>
     <row r="45" spans="1:12" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
@@ -4535,16 +4538,16 @@
         <v>41</v>
       </c>
       <c r="C46" s="97"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="99"/>
       <c r="G46" s="32"/>
       <c r="I46" s="32"/>
       <c r="J46" s="30"/>
-      <c r="K46" s="100" t="s">
+      <c r="K46" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="L46" s="100"/>
+      <c r="L46" s="90"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="32"/>
@@ -4552,15 +4555,15 @@
         <v>35</v>
       </c>
       <c r="C47" s="97"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="99"/>
       <c r="G47" s="32"/>
       <c r="H47" s="31"/>
       <c r="I47" s="32"/>
       <c r="J47" s="30"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="100"/>
+      <c r="K47" s="90"/>
+      <c r="L47" s="90"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="32"/>
@@ -4576,8 +4579,8 @@
       <c r="H48" s="31"/>
       <c r="I48" s="32"/>
       <c r="J48" s="30"/>
-      <c r="K48" s="100"/>
-      <c r="L48" s="100"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="32"/>
@@ -4592,23 +4595,23 @@
       <c r="G49" s="32"/>
       <c r="I49" s="32"/>
       <c r="J49" s="30"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="100"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="90"/>
     </row>
     <row r="50" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="32"/>
-      <c r="B50" s="124" t="s">
+      <c r="B50" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="122"/>
-      <c r="D50" s="122"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="123"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="88"/>
       <c r="I50" s="32"/>
       <c r="J50" s="30"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="100"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="90"/>
     </row>
     <row r="51" spans="1:12" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
@@ -4632,14 +4635,14 @@
         <v>45</v>
       </c>
       <c r="C52" s="97"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="98"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="99"/>
       <c r="G52" s="32"/>
       <c r="I52" s="32"/>
       <c r="J52" s="30"/>
-      <c r="K52" s="99"/>
-      <c r="L52" s="100"/>
+      <c r="K52" s="104"/>
+      <c r="L52" s="90"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="32"/>
@@ -4647,14 +4650,14 @@
         <v>35</v>
       </c>
       <c r="C53" s="97"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="112"/>
-      <c r="F53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="99"/>
       <c r="G53" s="32"/>
       <c r="I53" s="32"/>
       <c r="J53" s="30"/>
-      <c r="K53" s="99"/>
-      <c r="L53" s="100"/>
+      <c r="K53" s="104"/>
+      <c r="L53" s="90"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="32"/>
@@ -4673,8 +4676,8 @@
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="30"/>
-      <c r="K54" s="99"/>
-      <c r="L54" s="100"/>
+      <c r="K54" s="104"/>
+      <c r="L54" s="90"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B55" s="49" t="s">
@@ -4687,8 +4690,8 @@
       <c r="G55" s="32"/>
       <c r="I55" s="32"/>
       <c r="J55" s="30"/>
-      <c r="K55" s="99"/>
-      <c r="L55" s="100"/>
+      <c r="K55" s="104"/>
+      <c r="L55" s="90"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="32"/>
@@ -4696,8 +4699,8 @@
       <c r="G56" s="32"/>
       <c r="I56" s="32"/>
       <c r="J56" s="30"/>
-      <c r="K56" s="99"/>
-      <c r="L56" s="100"/>
+      <c r="K56" s="104"/>
+      <c r="L56" s="90"/>
     </row>
     <row r="57" spans="1:12" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
@@ -4723,17 +4726,17 @@
       <c r="C58" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="D58" s="112"/>
-      <c r="E58" s="112"/>
-      <c r="F58" s="98"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="98"/>
+      <c r="F58" s="99"/>
       <c r="G58" s="32"/>
       <c r="H58" t="s">
         <v>126</v>
       </c>
       <c r="I58" s="32"/>
       <c r="J58" s="30"/>
-      <c r="K58" s="99"/>
-      <c r="L58" s="100"/>
+      <c r="K58" s="104"/>
+      <c r="L58" s="90"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="32"/>
@@ -4743,14 +4746,14 @@
       <c r="C59" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="112"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="98"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="99"/>
       <c r="G59" s="32"/>
       <c r="I59" s="32"/>
       <c r="J59" s="30"/>
-      <c r="K59" s="99"/>
-      <c r="L59" s="100"/>
+      <c r="K59" s="104"/>
+      <c r="L59" s="90"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="32"/>
@@ -4758,14 +4761,14 @@
         <v>50</v>
       </c>
       <c r="C60" s="97"/>
-      <c r="D60" s="112"/>
-      <c r="E60" s="112"/>
-      <c r="F60" s="98"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="99"/>
       <c r="G60" s="32"/>
       <c r="I60" s="32"/>
       <c r="J60" s="30"/>
-      <c r="K60" s="99"/>
-      <c r="L60" s="100"/>
+      <c r="K60" s="104"/>
+      <c r="L60" s="90"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="32"/>
@@ -4777,16 +4780,16 @@
       <c r="G61" s="32"/>
       <c r="I61" s="32"/>
       <c r="J61" s="30"/>
-      <c r="K61" s="99"/>
-      <c r="L61" s="100"/>
+      <c r="K61" s="104"/>
+      <c r="L61" s="90"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="32"/>
       <c r="G62" s="32"/>
       <c r="I62" s="32"/>
       <c r="J62" s="30"/>
-      <c r="K62" s="99"/>
-      <c r="L62" s="100"/>
+      <c r="K62" s="104"/>
+      <c r="L62" s="90"/>
     </row>
     <row r="63" spans="1:12" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="33"/>
@@ -4810,46 +4813,46 @@
         <v>48</v>
       </c>
       <c r="C64" s="97"/>
-      <c r="D64" s="112"/>
-      <c r="E64" s="112"/>
-      <c r="F64" s="98"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="99"/>
       <c r="G64" s="32"/>
       <c r="I64" s="32"/>
       <c r="J64" s="30"/>
-      <c r="K64" s="113" t="s">
+      <c r="K64" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="L64" s="100"/>
+      <c r="L64" s="90"/>
     </row>
     <row r="65" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="32"/>
       <c r="B65" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="105"/>
-      <c r="D65" s="106"/>
-      <c r="E65" s="106"/>
-      <c r="F65" s="107"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="109"/>
       <c r="G65" s="32"/>
       <c r="I65" s="32"/>
       <c r="J65" s="30"/>
-      <c r="K65" s="113"/>
-      <c r="L65" s="100"/>
+      <c r="K65" s="106"/>
+      <c r="L65" s="90"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="32"/>
-      <c r="B66" s="122" t="s">
+      <c r="B66" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="122"/>
-      <c r="D66" s="122"/>
-      <c r="E66" s="122"/>
-      <c r="F66" s="122"/>
-      <c r="G66" s="123"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="87"/>
+      <c r="G66" s="88"/>
       <c r="I66" s="32"/>
       <c r="J66" s="30"/>
-      <c r="K66" s="113"/>
-      <c r="L66" s="100"/>
+      <c r="K66" s="106"/>
+      <c r="L66" s="90"/>
     </row>
     <row r="67" spans="1:12" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
@@ -4872,8 +4875,8 @@
       <c r="G68" s="32"/>
       <c r="I68" s="32"/>
       <c r="J68" s="30"/>
-      <c r="K68" s="102"/>
-      <c r="L68" s="100"/>
+      <c r="K68" s="101"/>
+      <c r="L68" s="90"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="52"/>
@@ -4886,8 +4889,8 @@
       <c r="H69" s="54"/>
       <c r="I69" s="52"/>
       <c r="J69" s="55"/>
-      <c r="K69" s="103"/>
-      <c r="L69" s="104"/>
+      <c r="K69" s="110"/>
+      <c r="L69" s="111"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="56"/>
@@ -4908,10 +4911,10 @@
       <c r="E71" s="18"/>
       <c r="F71" s="18"/>
       <c r="G71" s="19"/>
-      <c r="H71" s="109" t="s">
+      <c r="H71" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="I71" s="110"/>
+      <c r="I71" s="96"/>
       <c r="J71" s="16"/>
       <c r="K71" s="20"/>
       <c r="L71" s="16" t="s">
@@ -4941,15 +4944,15 @@
       <c r="B73" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="105"/>
-      <c r="D73" s="106"/>
-      <c r="E73" s="106"/>
-      <c r="F73" s="107"/>
+      <c r="C73" s="107"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="109"/>
       <c r="G73" s="32"/>
       <c r="I73" s="32"/>
       <c r="J73" s="30"/>
-      <c r="K73" s="108"/>
-      <c r="L73" s="111"/>
+      <c r="K73" s="112"/>
+      <c r="L73" s="113"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="32"/>
@@ -4968,8 +4971,8 @@
       </c>
       <c r="I74" s="32"/>
       <c r="J74" s="30"/>
-      <c r="K74" s="99"/>
-      <c r="L74" s="100"/>
+      <c r="K74" s="104"/>
+      <c r="L74" s="90"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="32"/>
@@ -4985,8 +4988,8 @@
       <c r="G75" s="32"/>
       <c r="I75" s="32"/>
       <c r="J75" s="30"/>
-      <c r="K75" s="99"/>
-      <c r="L75" s="100"/>
+      <c r="K75" s="104"/>
+      <c r="L75" s="90"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="32"/>
@@ -5000,16 +5003,16 @@
       <c r="G76" s="32"/>
       <c r="I76" s="32"/>
       <c r="J76" s="30"/>
-      <c r="K76" s="99"/>
-      <c r="L76" s="100"/>
+      <c r="K76" s="104"/>
+      <c r="L76" s="90"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="32"/>
       <c r="G77" s="32"/>
       <c r="I77" s="32"/>
       <c r="J77" s="30"/>
-      <c r="K77" s="99"/>
-      <c r="L77" s="100"/>
+      <c r="K77" s="104"/>
+      <c r="L77" s="90"/>
     </row>
     <row r="78" spans="1:12" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
@@ -5032,15 +5035,15 @@
       <c r="B79" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C79" s="105"/>
-      <c r="D79" s="106"/>
-      <c r="E79" s="106"/>
-      <c r="F79" s="107"/>
+      <c r="C79" s="107"/>
+      <c r="D79" s="108"/>
+      <c r="E79" s="108"/>
+      <c r="F79" s="109"/>
       <c r="G79" s="32"/>
       <c r="I79" s="32"/>
       <c r="J79" s="30"/>
-      <c r="K79" s="108"/>
-      <c r="L79" s="100"/>
+      <c r="K79" s="112"/>
+      <c r="L79" s="90"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="32"/>
@@ -5059,8 +5062,8 @@
       </c>
       <c r="I80" s="32"/>
       <c r="J80" s="30"/>
-      <c r="K80" s="99"/>
-      <c r="L80" s="100"/>
+      <c r="K80" s="104"/>
+      <c r="L80" s="90"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="32"/>
@@ -5077,8 +5080,8 @@
       <c r="H81" s="63"/>
       <c r="I81" s="32"/>
       <c r="J81" s="30"/>
-      <c r="K81" s="99"/>
-      <c r="L81" s="100"/>
+      <c r="K81" s="104"/>
+      <c r="L81" s="90"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="32"/>
@@ -5093,8 +5096,8 @@
       <c r="H82" s="63"/>
       <c r="I82" s="32"/>
       <c r="J82" s="30"/>
-      <c r="K82" s="99"/>
-      <c r="L82" s="100"/>
+      <c r="K82" s="104"/>
+      <c r="L82" s="90"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="32"/>
@@ -5102,8 +5105,8 @@
       <c r="H83" s="63"/>
       <c r="I83" s="32"/>
       <c r="J83" s="30"/>
-      <c r="K83" s="99"/>
-      <c r="L83" s="100"/>
+      <c r="K83" s="104"/>
+      <c r="L83" s="90"/>
     </row>
     <row r="84" spans="1:12" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
@@ -5126,15 +5129,15 @@
       <c r="B85" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C85" s="105"/>
-      <c r="D85" s="106"/>
-      <c r="E85" s="106"/>
-      <c r="F85" s="107"/>
+      <c r="C85" s="107"/>
+      <c r="D85" s="108"/>
+      <c r="E85" s="108"/>
+      <c r="F85" s="109"/>
       <c r="G85" s="32"/>
       <c r="I85" s="32"/>
       <c r="J85" s="30"/>
-      <c r="K85" s="108"/>
-      <c r="L85" s="100"/>
+      <c r="K85" s="112"/>
+      <c r="L85" s="90"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="32"/>
@@ -5153,8 +5156,8 @@
       </c>
       <c r="I86" s="32"/>
       <c r="J86" s="32"/>
-      <c r="K86" s="99"/>
-      <c r="L86" s="100"/>
+      <c r="K86" s="104"/>
+      <c r="L86" s="90"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="32"/>
@@ -5171,8 +5174,8 @@
       <c r="H87" s="63"/>
       <c r="I87" s="32"/>
       <c r="J87" s="32"/>
-      <c r="K87" s="99"/>
-      <c r="L87" s="100"/>
+      <c r="K87" s="104"/>
+      <c r="L87" s="90"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="32"/>
@@ -5187,8 +5190,8 @@
       <c r="H88" s="63"/>
       <c r="I88" s="32"/>
       <c r="J88" s="32"/>
-      <c r="K88" s="99"/>
-      <c r="L88" s="100"/>
+      <c r="K88" s="104"/>
+      <c r="L88" s="90"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="32"/>
@@ -5196,8 +5199,8 @@
       <c r="H89" s="63"/>
       <c r="I89" s="32"/>
       <c r="J89" s="32"/>
-      <c r="K89" s="99"/>
-      <c r="L89" s="100"/>
+      <c r="K89" s="104"/>
+      <c r="L89" s="90"/>
     </row>
     <row r="90" spans="1:12" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="33"/>
@@ -5220,16 +5223,16 @@
       <c r="G91" s="32"/>
       <c r="I91" s="32"/>
       <c r="J91" s="32"/>
-      <c r="K91" s="102"/>
-      <c r="L91" s="100"/>
+      <c r="K91" s="101"/>
+      <c r="L91" s="90"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="32"/>
       <c r="G92" s="32"/>
       <c r="I92" s="32"/>
       <c r="J92" s="32"/>
-      <c r="K92" s="102"/>
-      <c r="L92" s="100"/>
+      <c r="K92" s="101"/>
+      <c r="L92" s="90"/>
     </row>
     <row r="93" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="33"/>
@@ -5252,16 +5255,16 @@
       <c r="G94" s="32"/>
       <c r="I94" s="32"/>
       <c r="J94" s="32"/>
-      <c r="K94" s="102"/>
-      <c r="L94" s="100"/>
+      <c r="K94" s="101"/>
+      <c r="L94" s="90"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="32"/>
       <c r="G95" s="32"/>
       <c r="I95" s="32"/>
       <c r="J95" s="32"/>
-      <c r="K95" s="102"/>
-      <c r="L95" s="100"/>
+      <c r="K95" s="101"/>
+      <c r="L95" s="90"/>
     </row>
     <row r="96" spans="1:12" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="33"/>
@@ -5288,8 +5291,8 @@
       <c r="G97" s="32"/>
       <c r="I97" s="32"/>
       <c r="J97" s="32"/>
-      <c r="K97" s="99"/>
-      <c r="L97" s="100"/>
+      <c r="K97" s="104"/>
+      <c r="L97" s="90"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="32"/>
@@ -5305,8 +5308,8 @@
       </c>
       <c r="I98" s="32"/>
       <c r="J98" s="32"/>
-      <c r="K98" s="99"/>
-      <c r="L98" s="100"/>
+      <c r="K98" s="104"/>
+      <c r="L98" s="90"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="32"/>
@@ -5320,16 +5323,16 @@
       <c r="G99" s="32"/>
       <c r="I99" s="32"/>
       <c r="J99" s="32"/>
-      <c r="K99" s="99"/>
-      <c r="L99" s="100"/>
+      <c r="K99" s="104"/>
+      <c r="L99" s="90"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="32"/>
       <c r="G100" s="32"/>
       <c r="I100" s="32"/>
       <c r="J100" s="32"/>
-      <c r="K100" s="99"/>
-      <c r="L100" s="100"/>
+      <c r="K100" s="104"/>
+      <c r="L100" s="90"/>
     </row>
     <row r="101" spans="1:12" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="33"/>
@@ -5352,7 +5355,7 @@
       <c r="B102" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="C102" s="98"/>
+      <c r="C102" s="99"/>
       <c r="D102" s="50"/>
       <c r="E102" t="str">
         <f>IF(B102="% ThOD biodegradation after 28 days:","% degradation (ThOD)",IF(B102="% DOC biodegradation after 28 days:","% degradation (DOC)",IF(B102="Substance is inherently biodegradable","","Assess manually")))</f>
@@ -5361,28 +5364,28 @@
       <c r="G102" s="32"/>
       <c r="I102" s="32"/>
       <c r="J102" s="32"/>
-      <c r="K102" s="99" t="s">
+      <c r="K102" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="L102" s="100"/>
+      <c r="L102" s="90"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="32"/>
-      <c r="B103" s="122" t="s">
+      <c r="B103" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="C103" s="122"/>
-      <c r="D103" s="122"/>
-      <c r="E103" s="122"/>
-      <c r="F103" s="122"/>
-      <c r="G103" s="123"/>
+      <c r="C103" s="87"/>
+      <c r="D103" s="87"/>
+      <c r="E103" s="87"/>
+      <c r="F103" s="87"/>
+      <c r="G103" s="88"/>
       <c r="H103" t="s">
         <v>122</v>
       </c>
       <c r="I103" s="32"/>
       <c r="J103" s="32"/>
-      <c r="K103" s="99"/>
-      <c r="L103" s="100"/>
+      <c r="K103" s="104"/>
+      <c r="L103" s="90"/>
     </row>
     <row r="104" spans="1:12" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="33"/>
@@ -5405,16 +5408,16 @@
       <c r="G105" s="32"/>
       <c r="I105" s="32"/>
       <c r="J105" s="32"/>
-      <c r="K105" s="101"/>
-      <c r="L105" s="100"/>
+      <c r="K105" s="124"/>
+      <c r="L105" s="90"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="32"/>
       <c r="G106" s="32"/>
       <c r="I106" s="32"/>
       <c r="J106" s="32"/>
-      <c r="K106" s="101"/>
-      <c r="L106" s="100"/>
+      <c r="K106" s="124"/>
+      <c r="L106" s="90"/>
     </row>
     <row r="107" spans="1:12" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="33"/>
@@ -5437,16 +5440,16 @@
       <c r="G108" s="32"/>
       <c r="I108" s="32"/>
       <c r="J108" s="32"/>
-      <c r="K108" s="102"/>
-      <c r="L108" s="100"/>
+      <c r="K108" s="101"/>
+      <c r="L108" s="90"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="32"/>
       <c r="G109" s="32"/>
       <c r="I109" s="32"/>
       <c r="J109" s="32"/>
-      <c r="K109" s="103"/>
-      <c r="L109" s="104"/>
+      <c r="K109" s="110"/>
+      <c r="L109" s="111"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="58" t="s">
@@ -5474,10 +5477,10 @@
       <c r="G111" s="32"/>
       <c r="I111" s="32"/>
       <c r="J111" s="32"/>
-      <c r="K111" s="87" t="s">
+      <c r="K111" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="L111" s="88"/>
+      <c r="L111" s="115"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="32"/>
@@ -5485,8 +5488,8 @@
       <c r="G112" s="32"/>
       <c r="I112" s="32"/>
       <c r="J112" s="32"/>
-      <c r="K112" s="89"/>
-      <c r="L112" s="90"/>
+      <c r="K112" s="116"/>
+      <c r="L112" s="117"/>
     </row>
     <row r="113" spans="1:12" ht="4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="33"/>
@@ -5512,10 +5515,10 @@
       <c r="G114" s="32"/>
       <c r="I114" s="32"/>
       <c r="J114" s="32"/>
-      <c r="K114" s="87" t="s">
+      <c r="K114" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="L114" s="88"/>
+      <c r="L114" s="115"/>
     </row>
     <row r="115" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="55"/>
@@ -5528,34 +5531,34 @@
       <c r="H115" s="54"/>
       <c r="I115" s="52"/>
       <c r="J115" s="32"/>
-      <c r="K115" s="91"/>
-      <c r="L115" s="92"/>
+      <c r="K115" s="118"/>
+      <c r="L115" s="119"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J116" s="71" t="s">
         <v>78</v>
       </c>
       <c r="K116" s="72"/>
-      <c r="L116" s="93" t="s">
+      <c r="L116" s="120" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J117" s="73"/>
       <c r="K117" s="52"/>
-      <c r="L117" s="94"/>
+      <c r="L117" s="121"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J118" s="74" t="s">
         <v>79</v>
       </c>
       <c r="K118" s="29"/>
-      <c r="L118" s="95"/>
+      <c r="L118" s="122"/>
     </row>
     <row r="119" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J119" s="75"/>
       <c r="K119" s="76"/>
-      <c r="L119" s="96"/>
+      <c r="L119" s="123"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="58" t="s">
@@ -5808,31 +5811,36 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="L33:L35"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="K40:K44"/>
-    <mergeCell ref="L40:L44"/>
-    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="K111:L112"/>
+    <mergeCell ref="K114:L115"/>
+    <mergeCell ref="L116:L117"/>
+    <mergeCell ref="L118:L119"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="L94:L95"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="K79:K83"/>
+    <mergeCell ref="L79:L83"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="K85:K89"/>
+    <mergeCell ref="L85:L89"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="K73:K77"/>
+    <mergeCell ref="L73:L77"/>
     <mergeCell ref="C64:F64"/>
     <mergeCell ref="K64:K66"/>
     <mergeCell ref="L64:L66"/>
@@ -5849,36 +5857,31 @@
     <mergeCell ref="K58:K62"/>
     <mergeCell ref="L58:L62"/>
     <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="C73:F73"/>
-    <mergeCell ref="K73:K77"/>
-    <mergeCell ref="L73:L77"/>
-    <mergeCell ref="C79:F79"/>
-    <mergeCell ref="K79:K83"/>
-    <mergeCell ref="L79:L83"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="K85:K89"/>
-    <mergeCell ref="L85:L89"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="K94:K95"/>
-    <mergeCell ref="L94:L95"/>
-    <mergeCell ref="K97:K100"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="K111:L112"/>
-    <mergeCell ref="K114:L115"/>
-    <mergeCell ref="L116:L117"/>
-    <mergeCell ref="L118:L119"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="L105:L106"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="K40:K44"/>
+    <mergeCell ref="L40:L44"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="L33:L35"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:K19"/>
   </mergeCells>
   <conditionalFormatting sqref="B97">
     <cfRule type="expression" dxfId="327" priority="10">
